--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kỳ 6\Thực tập nhóm_TH14\QuanLyKhoHang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kỳ 6\QLKhoHang\QLKhoHang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,18 +29,9 @@
     <t>Xây dựng hệ thống quản lý kho</t>
   </si>
   <si>
-    <t>Xây dựng CSDL. Khung đăng nhập, menu chính</t>
-  </si>
-  <si>
-    <t>Xây dựng module thống kê hàng hóa trong kho, quản lý hàng hóa trong kho, viết thủ tục, hàm liên quan đến hàng hóa, tìm kiếm hàng hóa</t>
-  </si>
-  <si>
     <t>Xây dựng module thống kê nhà cung cấp, quản lý nhà cung cấp, viết thủ tục, hàm liên quan đến nhà cung cấp, tìm kiếm nhà cung cấp</t>
   </si>
   <si>
-    <t>Xây dựng module thống kê phiếu nhập, quản lý phiếu nhập; viết thủ tục, hàm liên quan đến phiếu nhập; tìm kiếm phiếu nhập</t>
-  </si>
-  <si>
     <t>Mai Linh</t>
   </si>
   <si>
@@ -59,10 +50,19 @@
     <t>Vĩnh Hùng</t>
   </si>
   <si>
-    <t>Xây dựng module thống kê phiếu xuất, quản lý phiếu xuất, viết thủ tục, hàm liên quan đến phiếu nhập; tìm kiếm phiếu xuất1</t>
-  </si>
-  <si>
     <t>Xây dựng module thống kê khách hàng, quản lý khách hàng, viết thủ tục, hàm liên quan đến khách hàng tìm kiếm nhân viên</t>
+  </si>
+  <si>
+    <t>Xây dựng module thống kê hàng hóa trong kho, quản lý hàng hóa trong kho, viết thủ tục, hàm liên quan đến hàng hóa, tìm kiếm Danh mục sản phẩm và sản phẩm</t>
+  </si>
+  <si>
+    <t>Xây dựng module thống kê phiếu nhập, quản lý phiếu nhập; viết thủ tục, hàm liên quan đến kho hàng</t>
+  </si>
+  <si>
+    <t>Xây dựng module thống kê phiếu xuất, quản lý phiếu xuất, viết thủ tục, hàm liên quan đến bộ phận</t>
+  </si>
+  <si>
+    <t>Xây dựng CSDL. Khung đăng nhập, menu chính,xây dựng module ,viết thủ tục,hàm liên quan đến việc nhập xuất và báo cáo thống kê hàng hóa</t>
   </si>
 </sst>
 </file>
@@ -121,10 +121,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,7 +409,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J11"/>
+      <selection activeCell="B2" sqref="B2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,64 +438,64 @@
       <c r="A2" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4.2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>4.3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -514,7 +514,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -546,7 +546,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>4.5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -578,7 +578,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -53,16 +53,16 @@
     <t>Xây dựng module thống kê khách hàng, quản lý khách hàng, viết thủ tục, hàm liên quan đến khách hàng tìm kiếm nhân viên</t>
   </si>
   <si>
-    <t>Xây dựng module thống kê hàng hóa trong kho, quản lý hàng hóa trong kho, viết thủ tục, hàm liên quan đến hàng hóa, tìm kiếm Danh mục sản phẩm và sản phẩm</t>
-  </si>
-  <si>
     <t>Xây dựng module thống kê phiếu nhập, quản lý phiếu nhập; viết thủ tục, hàm liên quan đến kho hàng</t>
   </si>
   <si>
     <t>Xây dựng module thống kê phiếu xuất, quản lý phiếu xuất, viết thủ tục, hàm liên quan đến bộ phận</t>
   </si>
   <si>
-    <t>Xây dựng CSDL. Khung đăng nhập, menu chính,xây dựng module ,viết thủ tục,hàm liên quan đến việc nhập xuất và báo cáo thống kê hàng hóa</t>
+    <t>Xây dựng module,viết thủ tục,hàm liên quan đến  báo cáo,thống kê hàng hóa,phiếu nhập xuất trong kho</t>
+  </si>
+  <si>
+    <t>Xây dựng CSDL. Khung đăng nhập, menu chính,xây dựng module ,viết thủ tục,hàm liên quan đến Danh mục sản phẩm và sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -118,13 +118,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,32 +438,32 @@
       <c r="A2" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>4.2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -502,154 +502,154 @@
       <c r="A6" s="3">
         <v>4.3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4.5</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -676,19 +676,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:J9"/>
-    <mergeCell ref="K8:K9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -698,6 +685,19 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:J13"/>
     <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
